--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/49/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/49/FD_Curve.xlsx
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>7.712140000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>7712.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247934</v>
       </c>
       <c r="B10" t="n">
-        <v>8.895989999999999</v>
+        <v>8.38898</v>
       </c>
       <c r="C10" t="n">
-        <v>8895.99</v>
+        <v>8388.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278859</v>
       </c>
       <c r="B11" t="n">
-        <v>9.580030000000001</v>
+        <v>8.870810000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9580.030000000001</v>
+        <v>8870.809999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309784</v>
       </c>
       <c r="B12" t="n">
-        <v>10.2474</v>
+        <v>8.99207</v>
       </c>
       <c r="C12" t="n">
-        <v>10247.4</v>
+        <v>8992.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340709</v>
       </c>
       <c r="B13" t="n">
-        <v>10.9774</v>
+        <v>8.98138</v>
       </c>
       <c r="C13" t="n">
-        <v>10977.4</v>
+        <v>8981.379999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371634</v>
       </c>
       <c r="B14" t="n">
-        <v>11.4167</v>
+        <v>8.978700000000002</v>
       </c>
       <c r="C14" t="n">
-        <v>11416.7</v>
+        <v>8978.700000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.40256</v>
       </c>
       <c r="B15" t="n">
-        <v>11.9096</v>
+        <v>8.972190000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>11909.6</v>
+        <v>8972.190000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433485</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2733</v>
+        <v>8.962430000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>12273.3</v>
+        <v>8962.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.46441</v>
       </c>
       <c r="B17" t="n">
-        <v>12.507</v>
+        <v>8.946610000000002</v>
       </c>
       <c r="C17" t="n">
-        <v>12507</v>
+        <v>8946.610000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495335</v>
       </c>
       <c r="B18" t="n">
-        <v>12.6431</v>
+        <v>8.92731</v>
       </c>
       <c r="C18" t="n">
-        <v>12643.1</v>
+        <v>8927.309999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.52626</v>
       </c>
       <c r="B19" t="n">
-        <v>12.6944</v>
+        <v>8.903799999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>12694.4</v>
+        <v>8903.799999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557185</v>
       </c>
       <c r="B20" t="n">
-        <v>12.6904</v>
+        <v>8.878780000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>12690.4</v>
+        <v>8878.780000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.58811</v>
       </c>
       <c r="B21" t="n">
-        <v>12.6742</v>
+        <v>8.851180000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>12674.2</v>
+        <v>8851.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619152</v>
       </c>
       <c r="B22" t="n">
-        <v>12.6532</v>
+        <v>8.824120000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>12653.2</v>
+        <v>8824.120000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650324</v>
       </c>
       <c r="B23" t="n">
-        <v>12.6298</v>
+        <v>8.79691</v>
       </c>
       <c r="C23" t="n">
-        <v>12629.8</v>
+        <v>8796.91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681497</v>
       </c>
       <c r="B24" t="n">
-        <v>12.6039</v>
+        <v>8.76844</v>
       </c>
       <c r="C24" t="n">
-        <v>12603.9</v>
+        <v>8768.440000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712674</v>
       </c>
       <c r="B25" t="n">
-        <v>12.5756</v>
+        <v>8.738250000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>12575.6</v>
+        <v>8738.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743835</v>
+        <v>0.743846</v>
       </c>
       <c r="B26" t="n">
-        <v>12.5455</v>
+        <v>8.70506</v>
       </c>
       <c r="C26" t="n">
-        <v>12545.5</v>
+        <v>8705.059999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775023</v>
       </c>
       <c r="B27" t="n">
-        <v>12.5136</v>
+        <v>8.668940000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>12513.6</v>
+        <v>8668.940000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806196</v>
       </c>
       <c r="B28" t="n">
-        <v>12.4801</v>
+        <v>8.62988</v>
       </c>
       <c r="C28" t="n">
-        <v>12480.1</v>
+        <v>8629.879999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837369</v>
       </c>
       <c r="B29" t="n">
-        <v>12.4449</v>
+        <v>8.588760000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>12444.9</v>
+        <v>8588.76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868546</v>
       </c>
       <c r="B30" t="n">
-        <v>12.4081</v>
+        <v>8.546860000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>12408.1</v>
+        <v>8546.860000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899718</v>
       </c>
       <c r="B31" t="n">
-        <v>12.3695</v>
+        <v>8.504370000000002</v>
       </c>
       <c r="C31" t="n">
-        <v>12369.5</v>
+        <v>8504.370000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930891</v>
       </c>
       <c r="B32" t="n">
-        <v>12.3291</v>
+        <v>8.46044</v>
       </c>
       <c r="C32" t="n">
-        <v>12329.1</v>
+        <v>8460.440000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962068</v>
       </c>
       <c r="B33" t="n">
-        <v>12.2864</v>
+        <v>8.415100000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>12286.4</v>
+        <v>8415.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.99324</v>
       </c>
       <c r="B34" t="n">
-        <v>12.2416</v>
+        <v>8.367990000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>12241.6</v>
+        <v>8367.99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>12.1951</v>
+        <v>8.318520000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>12195.1</v>
+        <v>8318.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1463</v>
+        <v>8.266540000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>12146.3</v>
+        <v>8266.540000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08731</v>
       </c>
       <c r="B37" t="n">
-        <v>12.095</v>
+        <v>8.21227</v>
       </c>
       <c r="C37" t="n">
-        <v>12095</v>
+        <v>8212.27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11717</v>
+        <v>1.1186</v>
       </c>
       <c r="B38" t="n">
-        <v>12.042</v>
+        <v>8.156229999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>12042</v>
+        <v>8156.23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14813</v>
+        <v>1.14958</v>
       </c>
       <c r="B39" t="n">
-        <v>11.9869</v>
+        <v>8.097520000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>11986.9</v>
+        <v>8097.52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.18057</v>
       </c>
       <c r="B40" t="n">
-        <v>11.9284</v>
+        <v>8.0364</v>
       </c>
       <c r="C40" t="n">
-        <v>11928.4</v>
+        <v>8036.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21007</v>
+        <v>1.21162</v>
       </c>
       <c r="B41" t="n">
-        <v>11.8678</v>
+        <v>7.971220000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>11867.8</v>
+        <v>7971.22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24103</v>
+        <v>1.24242</v>
       </c>
       <c r="B42" t="n">
-        <v>11.8052</v>
+        <v>7.90362</v>
       </c>
       <c r="C42" t="n">
-        <v>11805.2</v>
+        <v>7903.62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.272</v>
+        <v>1.27362</v>
       </c>
       <c r="B43" t="n">
-        <v>11.7398</v>
+        <v>7.830520000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>11739.8</v>
+        <v>7830.52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30297</v>
+        <v>1.30447</v>
       </c>
       <c r="B44" t="n">
-        <v>11.6713</v>
+        <v>7.75515</v>
       </c>
       <c r="C44" t="n">
-        <v>11671.3</v>
+        <v>7755.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33389</v>
+        <v>1.33558</v>
       </c>
       <c r="B45" t="n">
-        <v>11.6004</v>
+        <v>7.67357</v>
       </c>
       <c r="C45" t="n">
-        <v>11600.4</v>
+        <v>7673.57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36494</v>
+        <v>1.36656</v>
       </c>
       <c r="B46" t="n">
-        <v>11.5272</v>
+        <v>7.5885</v>
       </c>
       <c r="C46" t="n">
-        <v>11527.2</v>
+        <v>7588.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39581</v>
+        <v>1.39755</v>
       </c>
       <c r="B47" t="n">
-        <v>11.4505</v>
+        <v>7.49875</v>
       </c>
       <c r="C47" t="n">
-        <v>11450.5</v>
+        <v>7498.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42695</v>
+        <v>1.42859</v>
       </c>
       <c r="B48" t="n">
-        <v>11.3693</v>
+        <v>7.404770000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>11369.3</v>
+        <v>7404.77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45782</v>
+        <v>1.45949</v>
       </c>
       <c r="B49" t="n">
-        <v>11.285</v>
+        <v>7.307</v>
       </c>
       <c r="C49" t="n">
-        <v>11285</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48893</v>
+        <v>1.49065</v>
       </c>
       <c r="B50" t="n">
-        <v>11.1953</v>
+        <v>7.20441</v>
       </c>
       <c r="C50" t="n">
-        <v>11195.3</v>
+        <v>7204.41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51992</v>
+        <v>1.52142</v>
       </c>
       <c r="B51" t="n">
-        <v>11.1016</v>
+        <v>7.09932</v>
       </c>
       <c r="C51" t="n">
-        <v>11101.6</v>
+        <v>7099.32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55084</v>
+        <v>1.55264</v>
       </c>
       <c r="B52" t="n">
-        <v>11.0032</v>
+        <v>6.98922</v>
       </c>
       <c r="C52" t="n">
-        <v>11003.2</v>
+        <v>6989.22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58197</v>
+        <v>1.58341</v>
       </c>
       <c r="B53" t="n">
-        <v>10.898</v>
+        <v>6.8785</v>
       </c>
       <c r="C53" t="n">
-        <v>10898</v>
+        <v>6878.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61282</v>
+        <v>1.6147</v>
       </c>
       <c r="B54" t="n">
-        <v>10.7883</v>
+        <v>6.76329</v>
       </c>
       <c r="C54" t="n">
-        <v>10788.3</v>
+        <v>6763.29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64395</v>
+        <v>1.64545</v>
       </c>
       <c r="B55" t="n">
-        <v>10.6713</v>
+        <v>6.64787</v>
       </c>
       <c r="C55" t="n">
-        <v>10671.3</v>
+        <v>6647.87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67489</v>
+        <v>1.67666</v>
       </c>
       <c r="B56" t="n">
-        <v>10.5498</v>
+        <v>6.528930000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>10549.8</v>
+        <v>6528.93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70591</v>
+        <v>1.70753</v>
       </c>
       <c r="B57" t="n">
-        <v>10.4219</v>
+        <v>6.4109</v>
       </c>
       <c r="C57" t="n">
-        <v>10421.9</v>
+        <v>6410.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73694</v>
+        <v>1.73857</v>
       </c>
       <c r="B58" t="n">
-        <v>10.288</v>
+        <v>6.29117</v>
       </c>
       <c r="C58" t="n">
-        <v>10288</v>
+        <v>6291.17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76781</v>
+        <v>1.76964</v>
       </c>
       <c r="B59" t="n">
-        <v>10.1491</v>
+        <v>6.171600000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>10149.1</v>
+        <v>6171.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79901</v>
+        <v>1.80034</v>
       </c>
       <c r="B60" t="n">
-        <v>10.0034</v>
+        <v>6.0529</v>
       </c>
       <c r="C60" t="n">
-        <v>10003.4</v>
+        <v>6052.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82975</v>
+        <v>1.83171</v>
       </c>
       <c r="B61" t="n">
-        <v>9.854010000000001</v>
+        <v>5.93249</v>
       </c>
       <c r="C61" t="n">
-        <v>9854.01</v>
+        <v>5932.49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86096</v>
+        <v>1.86242</v>
       </c>
       <c r="B62" t="n">
-        <v>9.697450000000002</v>
+        <v>5.81559</v>
       </c>
       <c r="C62" t="n">
-        <v>9697.450000000001</v>
+        <v>5815.59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89174</v>
+        <v>1.8936</v>
       </c>
       <c r="B63" t="n">
-        <v>9.53881</v>
+        <v>5.69874</v>
       </c>
       <c r="C63" t="n">
-        <v>9538.809999999999</v>
+        <v>5698.74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92296</v>
+        <v>1.92474</v>
       </c>
       <c r="B64" t="n">
-        <v>9.374129999999999</v>
+        <v>5.58509</v>
       </c>
       <c r="C64" t="n">
-        <v>9374.129999999999</v>
+        <v>5585.09</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95385</v>
+        <v>1.95529</v>
       </c>
       <c r="B65" t="n">
-        <v>9.208450000000001</v>
+        <v>5.47617</v>
       </c>
       <c r="C65" t="n">
-        <v>9208.450000000001</v>
+        <v>5476.17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98492</v>
+        <v>1.98675</v>
       </c>
       <c r="B66" t="n">
-        <v>9.03917</v>
+        <v>5.36706</v>
       </c>
       <c r="C66" t="n">
-        <v>9039.17</v>
+        <v>5367.06</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.016</v>
+        <v>2.01756</v>
       </c>
       <c r="B67" t="n">
-        <v>8.86805</v>
+        <v>5.26248</v>
       </c>
       <c r="C67" t="n">
-        <v>8868.049999999999</v>
+        <v>5262.48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04677</v>
+        <v>2.04768</v>
       </c>
       <c r="B68" t="n">
-        <v>8.69814</v>
+        <v>5.162890000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>8698.139999999999</v>
+        <v>5162.89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07806</v>
+        <v>2.07952</v>
       </c>
       <c r="B69" t="n">
-        <v>8.52468</v>
+        <v>5.06333</v>
       </c>
       <c r="C69" t="n">
-        <v>8524.68</v>
+        <v>5063.33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1089</v>
+        <v>2.11044</v>
       </c>
       <c r="B70" t="n">
-        <v>8.35432</v>
+        <v>4.96916</v>
       </c>
       <c r="C70" t="n">
-        <v>8354.32</v>
+        <v>4969.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13997</v>
+        <v>2.14085</v>
       </c>
       <c r="B71" t="n">
-        <v>8.182119999999999</v>
+        <v>4.87934</v>
       </c>
       <c r="C71" t="n">
-        <v>8182.12</v>
+        <v>4879.34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17136</v>
+        <v>2.17253</v>
       </c>
       <c r="B72" t="n">
-        <v>8.01135</v>
+        <v>4.79165</v>
       </c>
       <c r="C72" t="n">
-        <v>8011.35</v>
+        <v>4791.65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20148</v>
+        <v>2.20345</v>
       </c>
       <c r="B73" t="n">
-        <v>7.84532</v>
+        <v>4.70682</v>
       </c>
       <c r="C73" t="n">
-        <v>7845.32</v>
+        <v>4706.82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23332</v>
+        <v>2.23425</v>
       </c>
       <c r="B74" t="n">
-        <v>7.676270000000001</v>
+        <v>4.62677</v>
       </c>
       <c r="C74" t="n">
-        <v>7676.27</v>
+        <v>4626.77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26398</v>
+        <v>2.265</v>
       </c>
       <c r="B75" t="n">
-        <v>7.51358</v>
+        <v>4.55916</v>
       </c>
       <c r="C75" t="n">
-        <v>7513.58</v>
+        <v>4559.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29442</v>
+        <v>2.29628</v>
       </c>
       <c r="B76" t="n">
-        <v>7.3585</v>
+        <v>4.50296</v>
       </c>
       <c r="C76" t="n">
-        <v>7358.5</v>
+        <v>4502.96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32638</v>
+        <v>2.32629</v>
       </c>
       <c r="B77" t="n">
-        <v>7.20218</v>
+        <v>4.46251</v>
       </c>
       <c r="C77" t="n">
-        <v>7202.18</v>
+        <v>4462.51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3571</v>
+        <v>2.35887</v>
       </c>
       <c r="B78" t="n">
-        <v>7.05419</v>
+        <v>4.43433</v>
       </c>
       <c r="C78" t="n">
-        <v>7054.19</v>
+        <v>4434.33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38814</v>
+        <v>2.39078</v>
       </c>
       <c r="B79" t="n">
-        <v>6.91018</v>
+        <v>4.41026</v>
       </c>
       <c r="C79" t="n">
-        <v>6910.18</v>
+        <v>4410.26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41923</v>
+        <v>2.42104</v>
       </c>
       <c r="B80" t="n">
-        <v>6.7738</v>
+        <v>4.383760000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>6773.8</v>
+        <v>4383.76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45031</v>
+        <v>2.45394</v>
       </c>
       <c r="B81" t="n">
-        <v>6.64362</v>
+        <v>4.35717</v>
       </c>
       <c r="C81" t="n">
-        <v>6643.62</v>
+        <v>4357.17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4814</v>
+        <v>2.48722</v>
       </c>
       <c r="B82" t="n">
-        <v>6.52163</v>
+        <v>4.32973</v>
       </c>
       <c r="C82" t="n">
-        <v>6521.63</v>
+        <v>4329.73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51152</v>
+        <v>2.5205</v>
       </c>
       <c r="B83" t="n">
-        <v>6.40687</v>
+        <v>4.3056</v>
       </c>
       <c r="C83" t="n">
-        <v>6406.87</v>
+        <v>4305.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54117</v>
+        <v>2.55265</v>
       </c>
       <c r="B84" t="n">
-        <v>6.30114</v>
+        <v>4.278180000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>6301.14</v>
+        <v>4278.18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57245</v>
+        <v>2.58337</v>
       </c>
       <c r="B85" t="n">
-        <v>6.21584</v>
+        <v>4.252890000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>6215.84</v>
+        <v>4252.89</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60573</v>
+        <v>2.61409</v>
       </c>
       <c r="B86" t="n">
-        <v>6.15706</v>
+        <v>4.22533</v>
       </c>
       <c r="C86" t="n">
-        <v>6157.06</v>
+        <v>4225.33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63852</v>
+        <v>2.6448</v>
       </c>
       <c r="B87" t="n">
-        <v>6.11235</v>
+        <v>4.19876</v>
       </c>
       <c r="C87" t="n">
-        <v>6112.35</v>
+        <v>4198.76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66924</v>
+        <v>2.67553</v>
       </c>
       <c r="B88" t="n">
-        <v>6.06804</v>
+        <v>4.17024</v>
       </c>
       <c r="C88" t="n">
-        <v>6068.04</v>
+        <v>4170.24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69996</v>
+        <v>2.70625</v>
       </c>
       <c r="B89" t="n">
-        <v>6.030180000000001</v>
+        <v>4.1387</v>
       </c>
       <c r="C89" t="n">
-        <v>6030.18</v>
+        <v>4138.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73068</v>
+        <v>2.73697</v>
       </c>
       <c r="B90" t="n">
-        <v>5.99484</v>
+        <v>4.11493</v>
       </c>
       <c r="C90" t="n">
-        <v>5994.84</v>
+        <v>4114.93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7614</v>
+        <v>2.76523</v>
       </c>
       <c r="B91" t="n">
-        <v>5.95743</v>
+        <v>4.09102</v>
       </c>
       <c r="C91" t="n">
-        <v>5957.43</v>
+        <v>4091.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79212</v>
+        <v>2.79339</v>
       </c>
       <c r="B92" t="n">
-        <v>5.92051</v>
+        <v>4.06215</v>
       </c>
       <c r="C92" t="n">
-        <v>5920.51</v>
+        <v>4062.15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82085</v>
+        <v>2.82155</v>
       </c>
       <c r="B93" t="n">
-        <v>5.88338</v>
+        <v>4.03794</v>
       </c>
       <c r="C93" t="n">
-        <v>5883.38</v>
+        <v>4037.94</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84901</v>
+        <v>2.84971</v>
       </c>
       <c r="B94" t="n">
-        <v>5.84694</v>
+        <v>4.01187</v>
       </c>
       <c r="C94" t="n">
-        <v>5846.94</v>
+        <v>4011.87</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87717</v>
+        <v>2.88136</v>
       </c>
       <c r="B95" t="n">
-        <v>5.80573</v>
+        <v>3.98516</v>
       </c>
       <c r="C95" t="n">
-        <v>5805.73</v>
+        <v>3985.16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90533</v>
+        <v>2.91656</v>
       </c>
       <c r="B96" t="n">
-        <v>5.76749</v>
+        <v>3.95552</v>
       </c>
       <c r="C96" t="n">
-        <v>5767.49</v>
+        <v>3955.52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.93824</v>
+        <v>2.95176</v>
       </c>
       <c r="B97" t="n">
-        <v>5.72918</v>
+        <v>3.92427</v>
       </c>
       <c r="C97" t="n">
-        <v>5729.18</v>
+        <v>3924.27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97344</v>
+        <v>2.98557</v>
       </c>
       <c r="B98" t="n">
-        <v>5.68268</v>
+        <v>3.89884</v>
       </c>
       <c r="C98" t="n">
-        <v>5682.68</v>
+        <v>3898.84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00864</v>
+        <v>3.01757</v>
       </c>
       <c r="B99" t="n">
-        <v>5.635350000000001</v>
+        <v>3.86483</v>
       </c>
       <c r="C99" t="n">
-        <v>5635.35</v>
+        <v>3864.83</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04078</v>
+        <v>3.04957</v>
       </c>
       <c r="B100" t="n">
-        <v>5.59062</v>
+        <v>3.83849</v>
       </c>
       <c r="C100" t="n">
-        <v>5590.62</v>
+        <v>3838.49</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07278</v>
+        <v>3.08157</v>
       </c>
       <c r="B101" t="n">
-        <v>5.54562</v>
+        <v>3.80917</v>
       </c>
       <c r="C101" t="n">
-        <v>5545.62</v>
+        <v>3809.17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10478</v>
+        <v>3.11356</v>
       </c>
       <c r="B102" t="n">
-        <v>5.510260000000001</v>
+        <v>3.78054</v>
       </c>
       <c r="C102" t="n">
-        <v>5510.26</v>
+        <v>3780.54</v>
       </c>
     </row>
   </sheetData>
